--- a/uploads/balance2018.xlsx
+++ b/uploads/balance2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levzo\Desktop\web_balance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levzo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2168,7 +2168,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1"/>
+      <selection activeCell="C5" sqref="C5:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2298,7 +2298,9 @@
         <f>Уголь_пр!B3</f>
         <v>63.569999999999993</v>
       </c>
-      <c r="D5" s="72"/>
+      <c r="D5" s="72">
+        <v>0</v>
+      </c>
       <c r="E5" s="72">
         <f>Нефтепродукты!B3</f>
         <v>0</v>
@@ -2314,8 +2316,15 @@
       <c r="H5" s="106">
         <v>230</v>
       </c>
-      <c r="I5" s="72"/>
-      <c r="K5" s="72"/>
+      <c r="I5" s="72">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="72">
+        <v>0</v>
+      </c>
       <c r="L5" s="99">
         <f>SUM(C5:K5)</f>
         <v>347.78999999999996</v>
@@ -2334,7 +2343,9 @@
         <f>Уголь_пр!B4</f>
         <v>958.26</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="75">
+        <v>0</v>
+      </c>
       <c r="E6" s="75">
         <f>Нефтепродукты!B4</f>
         <v>1389.1799999999998</v>
@@ -2347,8 +2358,12 @@
         <f>ПТТ!B4</f>
         <v>0</v>
       </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="75"/>
+      <c r="H6" s="107">
+        <v>0</v>
+      </c>
+      <c r="I6" s="75">
+        <v>0</v>
+      </c>
       <c r="J6" s="75">
         <f>Электро!B5</f>
         <v>7120.88</v>
@@ -2375,7 +2390,9 @@
         <f>Уголь_пр!B5</f>
         <v>0</v>
       </c>
-      <c r="D7" s="75"/>
+      <c r="D7" s="75">
+        <v>0</v>
+      </c>
       <c r="E7" s="75">
         <f>Нефтепродукты!B5</f>
         <v>0</v>
@@ -2388,8 +2405,12 @@
         <f>ПТТ!B5</f>
         <v>0</v>
       </c>
-      <c r="H7" s="107"/>
-      <c r="I7" s="75"/>
+      <c r="H7" s="107">
+        <v>0</v>
+      </c>
+      <c r="I7" s="75">
+        <v>0</v>
+      </c>
       <c r="J7" s="75">
         <f>-Электро!B6</f>
         <v>-2825.81</v>
@@ -2415,7 +2436,9 @@
         <f>Уголь_пр!B6</f>
         <v>77.38</v>
       </c>
-      <c r="D8" s="75"/>
+      <c r="D8" s="75">
+        <v>0</v>
+      </c>
       <c r="E8" s="75">
         <f>Нефтепродукты!B6</f>
         <v>18.570000000000004</v>
@@ -2428,8 +2451,12 @@
         <f>ПТТ!B6</f>
         <v>-5.18</v>
       </c>
-      <c r="H8" s="107"/>
-      <c r="I8" s="75"/>
+      <c r="H8" s="107">
+        <v>0</v>
+      </c>
+      <c r="I8" s="75">
+        <v>0</v>
+      </c>
       <c r="J8" s="75">
         <f>Электро!B7</f>
         <v>0</v>
@@ -2454,7 +2481,9 @@
         <f>Уголь_пр!B7</f>
         <v>1099.21</v>
       </c>
-      <c r="D9" s="78"/>
+      <c r="D9" s="78">
+        <v>0</v>
+      </c>
       <c r="E9" s="78">
         <f>Нефтепродукты!B7</f>
         <v>1407.7499999999998</v>
@@ -2470,7 +2499,9 @@
       <c r="H9" s="108">
         <v>230</v>
       </c>
-      <c r="I9" s="78"/>
+      <c r="I9" s="78">
+        <v>0</v>
+      </c>
       <c r="J9" s="78">
         <f>SUM(J5:J8)</f>
         <v>4295.07</v>
@@ -2495,7 +2526,9 @@
         <f>Уголь_пр!B8</f>
         <v>1.1399999999999864</v>
       </c>
-      <c r="D10" s="75"/>
+      <c r="D10" s="75">
+        <v>0</v>
+      </c>
       <c r="E10" s="75">
         <f>Нефтепродукты!B8</f>
         <v>0.98000000000000376</v>
@@ -2511,7 +2544,9 @@
       <c r="H10" s="107">
         <v>0</v>
       </c>
-      <c r="I10" s="75"/>
+      <c r="I10" s="75">
+        <v>0</v>
+      </c>
       <c r="J10" s="75">
         <f>Электро!B9</f>
         <v>139.14999999999964</v>
@@ -2539,7 +2574,9 @@
         <f>-Уголь_пр!B9</f>
         <v>-216.88</v>
       </c>
-      <c r="D11" s="82"/>
+      <c r="D11" s="82">
+        <v>0</v>
+      </c>
       <c r="E11" s="82">
         <f>-Нефтепродукты!B10</f>
         <v>-8.879999999999999</v>
@@ -2556,12 +2593,16 @@
         <f>-H9</f>
         <v>-230</v>
       </c>
-      <c r="I11" s="82"/>
+      <c r="I11" s="82">
+        <v>0</v>
+      </c>
       <c r="J11" s="82">
         <f>Электро!B3</f>
         <v>2467.85</v>
       </c>
-      <c r="K11" s="96"/>
+      <c r="K11" s="96">
+        <v>0</v>
+      </c>
       <c r="L11" s="101">
         <f>SUM(C11:K11)</f>
         <v>-1783.2400000000002</v>
@@ -2630,7 +2671,9 @@
         <f>-Уголь_пр!B11</f>
         <v>-149.33000000000001</v>
       </c>
-      <c r="D13" s="75"/>
+      <c r="D13" s="75">
+        <v>0</v>
+      </c>
       <c r="E13" s="75">
         <f>-Нефтепродукты!B12</f>
         <v>-1.35</v>
@@ -2643,8 +2686,12 @@
         <f>-ПТТ!B11</f>
         <v>0</v>
       </c>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
+      <c r="H13" s="75">
+        <v>0</v>
+      </c>
+      <c r="I13" s="75">
+        <v>0</v>
+      </c>
       <c r="J13" s="75">
         <f>-Электро!B11</f>
         <v>-56.73</v>
@@ -2671,7 +2718,9 @@
         <f>-Уголь_пр!B12</f>
         <v>-95.039999999999992</v>
       </c>
-      <c r="D14" s="75"/>
+      <c r="D14" s="75">
+        <v>0</v>
+      </c>
       <c r="E14" s="75">
         <f>-Нефтепродукты!B13</f>
         <v>-114.83</v>
@@ -2684,8 +2733,12 @@
         <f>-ПТТ!B12</f>
         <v>-49.04</v>
       </c>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
+      <c r="H14" s="75">
+        <v>0</v>
+      </c>
+      <c r="I14" s="75">
+        <v>0</v>
+      </c>
       <c r="J14" s="75">
         <f>-Электро!B12</f>
         <v>0</v>
@@ -2710,7 +2763,9 @@
         <f>-Уголь_пр!B13+Уголь_пр!B14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="75"/>
+      <c r="D15" s="75">
+        <v>0</v>
+      </c>
       <c r="E15" s="75">
         <f>-(Нефтепродукты!B14+Нефтепродукты!B15)</f>
         <v>0</v>
@@ -2723,8 +2778,12 @@
         <f>-(ПТТ!B13+ПТТ!B14)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
+      <c r="H15" s="75">
+        <v>0</v>
+      </c>
+      <c r="I15" s="75">
+        <v>0</v>
+      </c>
       <c r="J15" s="75">
         <f>-(Электро!B13+Электро!B14)</f>
         <v>0</v>
@@ -2798,7 +2857,9 @@
         <f>-Уголь_пр!B15</f>
         <v>0</v>
       </c>
-      <c r="D17" s="75"/>
+      <c r="D17" s="75">
+        <v>0</v>
+      </c>
       <c r="E17" s="75">
         <f>-Нефтепродукты!B16</f>
         <v>0</v>
@@ -2811,8 +2872,12 @@
         <f>ПТТ!B15</f>
         <v>0</v>
       </c>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
+      <c r="H17" s="75">
+        <v>0</v>
+      </c>
+      <c r="I17" s="75">
+        <v>0</v>
+      </c>
       <c r="J17" s="75">
         <f>-Электро!B15</f>
         <v>0</v>
@@ -2837,7 +2902,9 @@
         <f>-Уголь_пр!B16</f>
         <v>0</v>
       </c>
-      <c r="D18" s="75"/>
+      <c r="D18" s="75">
+        <v>0</v>
+      </c>
       <c r="E18" s="75">
         <f>-Нефтепродукты!B17</f>
         <v>0</v>
@@ -2850,8 +2917,12 @@
         <f>ПТТ!B16</f>
         <v>0</v>
       </c>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
+      <c r="H18" s="75">
+        <v>0</v>
+      </c>
+      <c r="I18" s="75">
+        <v>0</v>
+      </c>
       <c r="J18" s="75">
         <f>-Электро!B16</f>
         <v>0</v>
@@ -2876,7 +2947,9 @@
         <f>-Уголь_пр!B17</f>
         <v>-636.44000000000005</v>
       </c>
-      <c r="D19" s="75"/>
+      <c r="D19" s="75">
+        <v>0</v>
+      </c>
       <c r="E19" s="75">
         <f>-Нефтепродукты!B18</f>
         <v>0</v>
@@ -2888,8 +2961,12 @@
       <c r="G19" s="75">
         <v>0</v>
       </c>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
+      <c r="H19" s="75">
+        <v>0</v>
+      </c>
+      <c r="I19" s="75">
+        <v>0</v>
+      </c>
       <c r="J19" s="75">
         <f>-Электро!B17</f>
         <v>-5.5</v>
@@ -2914,7 +2991,9 @@
         <f>-Уголь_пр!B18</f>
         <v>0</v>
       </c>
-      <c r="D20" s="82"/>
+      <c r="D20" s="82">
+        <v>0</v>
+      </c>
       <c r="E20" s="82">
         <f>-Нефтепродукты!B19</f>
         <v>0</v>
@@ -2927,8 +3006,12 @@
         <f>ПТТ!B18</f>
         <v>0</v>
       </c>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
+      <c r="H20" s="82">
+        <v>0</v>
+      </c>
+      <c r="I20" s="82">
+        <v>0</v>
+      </c>
       <c r="J20" s="82">
         <f>-Электро!B18</f>
         <v>-498.97</v>
@@ -2953,7 +3036,9 @@
         <f>-Уголь_пр!B19</f>
         <v>0</v>
       </c>
-      <c r="D21" s="82"/>
+      <c r="D21" s="82">
+        <v>0</v>
+      </c>
       <c r="E21" s="82">
         <f>-Нефтепродукты!B20</f>
         <v>0</v>
@@ -2966,8 +3051,12 @@
         <f>ПТТ!B19</f>
         <v>0</v>
       </c>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
+      <c r="H21" s="82">
+        <v>0</v>
+      </c>
+      <c r="I21" s="82">
+        <v>0</v>
+      </c>
       <c r="J21" s="82">
         <f>-Электро!B19</f>
         <v>-874.78</v>
@@ -2992,7 +3081,9 @@
         <f>Уголь_пр!B20</f>
         <v>0.38</v>
       </c>
-      <c r="D22" s="78"/>
+      <c r="D22" s="78">
+        <v>0</v>
+      </c>
       <c r="E22" s="78">
         <f>Нефтепродукты!B21</f>
         <v>1281.71</v>
@@ -3005,8 +3096,12 @@
         <f>ПТТ!C20</f>
         <v>0</v>
       </c>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
+      <c r="H22" s="78">
+        <v>0</v>
+      </c>
+      <c r="I22" s="78">
+        <v>0</v>
+      </c>
       <c r="J22" s="78">
         <f>Электро!B20</f>
         <v>5187.7900000000009</v>
@@ -3031,7 +3126,9 @@
         <f>Уголь_пр!B21</f>
         <v>0</v>
       </c>
-      <c r="D23" s="82"/>
+      <c r="D23" s="82">
+        <v>0</v>
+      </c>
       <c r="E23" s="82">
         <f>Нефтепродукты!B22</f>
         <v>68.09</v>
@@ -3044,8 +3141,12 @@
         <f>ПТТ!B21</f>
         <v>0</v>
       </c>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
+      <c r="H23" s="82">
+        <v>0</v>
+      </c>
+      <c r="I23" s="82">
+        <v>0</v>
+      </c>
       <c r="J23" s="82">
         <f>Электро!B21</f>
         <v>158.58000000000001</v>
@@ -3068,7 +3169,9 @@
         <f>Уголь_пр!B22</f>
         <v>0</v>
       </c>
-      <c r="D24" s="82"/>
+      <c r="D24" s="82">
+        <v>0</v>
+      </c>
       <c r="E24" s="82">
         <f>Нефтепродукты!B23</f>
         <v>310.76</v>
@@ -3077,9 +3180,15 @@
         <f>'Пр-й газ'!B24</f>
         <v>67.53</v>
       </c>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
+      <c r="G24" s="82">
+        <v>0</v>
+      </c>
+      <c r="H24" s="82">
+        <v>0</v>
+      </c>
+      <c r="I24" s="82">
+        <v>0</v>
+      </c>
       <c r="J24" s="82">
         <f>Электро!B22</f>
         <v>1946.14</v>
@@ -3102,7 +3211,9 @@
         <f>Уголь_пр!B23</f>
         <v>0</v>
       </c>
-      <c r="D25" s="82"/>
+      <c r="D25" s="82">
+        <v>0</v>
+      </c>
       <c r="E25" s="82">
         <f>Нефтепродукты!B24</f>
         <v>24.130000000000003</v>
@@ -3111,9 +3222,15 @@
         <f>'Пр-й газ'!B25</f>
         <v>2.34</v>
       </c>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
+      <c r="G25" s="82">
+        <v>0</v>
+      </c>
+      <c r="H25" s="82">
+        <v>0</v>
+      </c>
+      <c r="I25" s="82">
+        <v>0</v>
+      </c>
       <c r="J25" s="82">
         <f>Электро!B23</f>
         <v>19.43</v>
@@ -3138,7 +3255,9 @@
         <f>Уголь_пр!B24</f>
         <v>0</v>
       </c>
-      <c r="D26" s="82"/>
+      <c r="D26" s="82">
+        <v>0</v>
+      </c>
       <c r="E26" s="82">
         <f>Нефтепродукты!B25</f>
         <v>211.68</v>
@@ -3151,8 +3270,12 @@
         <f>ПТТ!C24</f>
         <v>0</v>
       </c>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
+      <c r="H26" s="82">
+        <v>0</v>
+      </c>
+      <c r="I26" s="82">
+        <v>0</v>
+      </c>
       <c r="J26" s="82">
         <f>Электро!B24</f>
         <v>1350.99</v>
@@ -3175,7 +3298,9 @@
         <f>Уголь_пр!B25</f>
         <v>0</v>
       </c>
-      <c r="D27" s="82"/>
+      <c r="D27" s="82">
+        <v>0</v>
+      </c>
       <c r="E27" s="82">
         <f>Нефтепродукты!B26</f>
         <v>36.020000000000003</v>
@@ -3184,9 +3309,15 @@
         <f>'Пр-й газ'!B27</f>
         <v>2.33</v>
       </c>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
+      <c r="G27" s="82">
+        <v>0</v>
+      </c>
+      <c r="H27" s="82">
+        <v>0</v>
+      </c>
+      <c r="I27" s="82">
+        <v>0</v>
+      </c>
       <c r="J27" s="82">
         <f>Электро!B25</f>
         <v>45.36</v>
@@ -3211,7 +3342,9 @@
         <f>Уголь_пр!B26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="82"/>
+      <c r="D28" s="82">
+        <v>0</v>
+      </c>
       <c r="E28" s="82">
         <f>Нефтепродукты!B27</f>
         <v>37.159999999999997</v>
@@ -3224,8 +3357,12 @@
         <f>ПТТ!B27</f>
         <v>0</v>
       </c>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
+      <c r="H28" s="82">
+        <v>0</v>
+      </c>
+      <c r="I28" s="82">
+        <v>0</v>
+      </c>
       <c r="J28" s="82">
         <f>Электро!B26</f>
         <v>242.21</v>
@@ -3248,7 +3385,9 @@
         <f>Уголь_пр!B27</f>
         <v>0</v>
       </c>
-      <c r="D29" s="82"/>
+      <c r="D29" s="82">
+        <v>0</v>
+      </c>
       <c r="E29" s="82">
         <f>Нефтепродукты!B28</f>
         <v>1.7799999999999998</v>
@@ -3257,9 +3396,15 @@
         <f>'Пр-й газ'!B29</f>
         <v>13.62</v>
       </c>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
+      <c r="G29" s="82">
+        <v>0</v>
+      </c>
+      <c r="H29" s="82">
+        <v>0</v>
+      </c>
+      <c r="I29" s="82">
+        <v>0</v>
+      </c>
       <c r="J29" s="82">
         <f>Электро!B27</f>
         <v>288.14999999999998</v>
@@ -3284,7 +3429,9 @@
         <f>Уголь_пр!B28</f>
         <v>0</v>
       </c>
-      <c r="D30" s="82"/>
+      <c r="D30" s="82">
+        <v>0</v>
+      </c>
       <c r="E30" s="82">
         <f>Нефтепродукты!B29</f>
         <v>146.01</v>
@@ -3297,8 +3444,12 @@
         <f>ПТТ!B29</f>
         <v>0</v>
       </c>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
+      <c r="H30" s="82">
+        <v>0</v>
+      </c>
+      <c r="I30" s="82">
+        <v>0</v>
+      </c>
       <c r="J30" s="82">
         <f>Электро!B28</f>
         <v>156.68</v>
@@ -3323,7 +3474,9 @@
         <f>Уголь_пр!B29</f>
         <v>0</v>
       </c>
-      <c r="D31" s="82"/>
+      <c r="D31" s="82">
+        <v>0</v>
+      </c>
       <c r="E31" s="82">
         <f>Нефтепродукты!B30</f>
         <v>451.87</v>
@@ -3336,8 +3489,12 @@
         <f>ПТТ!B30</f>
         <v>0</v>
       </c>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
+      <c r="H31" s="82">
+        <v>0</v>
+      </c>
+      <c r="I31" s="82">
+        <v>0</v>
+      </c>
       <c r="J31" s="82">
         <f>Электро!B29</f>
         <v>498.11</v>
@@ -3362,7 +3519,9 @@
         <f>Уголь_пр!B30</f>
         <v>0</v>
       </c>
-      <c r="D32" s="75"/>
+      <c r="D32" s="75">
+        <v>0</v>
+      </c>
       <c r="E32" s="75">
         <f>Нефтепродукты!B31</f>
         <v>2.4700000000000002</v>
@@ -3375,8 +3534,12 @@
         <f>ПТТ!B31</f>
         <v>0</v>
       </c>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
+      <c r="H32" s="75">
+        <v>0</v>
+      </c>
+      <c r="I32" s="75">
+        <v>0</v>
+      </c>
       <c r="J32" s="75">
         <f>Электро!B30</f>
         <v>335.02</v>
@@ -3401,7 +3564,9 @@
         <f>Уголь_пр!B31</f>
         <v>0</v>
       </c>
-      <c r="D33" s="75"/>
+      <c r="D33" s="75">
+        <v>0</v>
+      </c>
       <c r="E33" s="75">
         <f>Нефтепродукты!B32</f>
         <v>2.02</v>
@@ -3414,8 +3579,12 @@
         <f>ПТТ!B32</f>
         <v>0</v>
       </c>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
+      <c r="H33" s="75">
+        <v>0</v>
+      </c>
+      <c r="I33" s="75">
+        <v>0</v>
+      </c>
       <c r="J33" s="75">
         <f>Электро!B31</f>
         <v>10.63</v>
@@ -3440,7 +3609,9 @@
         <f>Уголь_пр!B32</f>
         <v>0</v>
       </c>
-      <c r="D34" s="75"/>
+      <c r="D34" s="75">
+        <v>0</v>
+      </c>
       <c r="E34" s="75">
         <f>Нефтепродукты!B33</f>
         <v>372.46</v>
@@ -3453,8 +3624,12 @@
         <f>ПТТ!B33</f>
         <v>0</v>
       </c>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
+      <c r="H34" s="75">
+        <v>0</v>
+      </c>
+      <c r="I34" s="75">
+        <v>0</v>
+      </c>
       <c r="J34" s="75">
         <f>Электро!B32</f>
         <v>6.3</v>
@@ -3479,7 +3654,9 @@
         <f>Уголь_пр!B33</f>
         <v>0</v>
       </c>
-      <c r="D35" s="75"/>
+      <c r="D35" s="75">
+        <v>0</v>
+      </c>
       <c r="E35" s="75">
         <f>Нефтепродукты!B34</f>
         <v>0</v>
@@ -3492,8 +3669,12 @@
         <f>ПТТ!B34</f>
         <v>0</v>
       </c>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
+      <c r="H35" s="75">
+        <v>0</v>
+      </c>
+      <c r="I35" s="75">
+        <v>0</v>
+      </c>
       <c r="J35" s="75">
         <f>Электро!B33</f>
         <v>49.85</v>
@@ -3518,7 +3699,9 @@
         <f>Уголь_пр!B34</f>
         <v>0</v>
       </c>
-      <c r="D36" s="82"/>
+      <c r="D36" s="82">
+        <v>0</v>
+      </c>
       <c r="E36" s="82">
         <f>Нефтепродукты!B35</f>
         <v>146.81</v>
@@ -3531,8 +3714,12 @@
         <f>ПТТ!B35</f>
         <v>0</v>
       </c>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
+      <c r="H36" s="82">
+        <v>0</v>
+      </c>
+      <c r="I36" s="82">
+        <v>0</v>
+      </c>
       <c r="J36" s="82">
         <f>Электро!B34</f>
         <v>852.93</v>
@@ -3557,7 +3744,9 @@
         <f>Уголь_пр!B35</f>
         <v>0</v>
       </c>
-      <c r="D37" s="82"/>
+      <c r="D37" s="82">
+        <v>0</v>
+      </c>
       <c r="E37" s="82">
         <f>Нефтепродукты!B36</f>
         <v>27.04</v>
@@ -3570,8 +3759,12 @@
         <f>ПТТ!B36</f>
         <v>0</v>
       </c>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
+      <c r="H37" s="82">
+        <v>0</v>
+      </c>
+      <c r="I37" s="82">
+        <v>0</v>
+      </c>
       <c r="J37" s="82">
         <f>Электро!B35</f>
         <v>1039.6600000000001</v>
@@ -3596,7 +3789,9 @@
         <f>Уголь_пр!B36</f>
         <v>0.38</v>
       </c>
-      <c r="D38" s="82"/>
+      <c r="D38" s="82">
+        <v>0</v>
+      </c>
       <c r="E38" s="82">
         <f>Нефтепродукты!B37</f>
         <v>4.22</v>
@@ -3609,8 +3804,12 @@
         <f>ПТТ!B37</f>
         <v>0</v>
       </c>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
+      <c r="H38" s="82">
+        <v>0</v>
+      </c>
+      <c r="I38" s="82">
+        <v>0</v>
+      </c>
       <c r="J38" s="82">
         <f>Электро!B36</f>
         <v>0</v>
@@ -3635,7 +3834,9 @@
         <f>Уголь_пр!B37</f>
         <v>0</v>
       </c>
-      <c r="D39" s="91"/>
+      <c r="D39" s="91">
+        <v>0</v>
+      </c>
       <c r="E39" s="91">
         <f>Нефтепродукты!B38</f>
         <v>126.91</v>
@@ -3648,8 +3849,12 @@
         <f>ПТТ!B38</f>
         <v>0</v>
       </c>
-      <c r="H39" s="91"/>
-      <c r="I39" s="91"/>
+      <c r="H39" s="91">
+        <v>0</v>
+      </c>
+      <c r="I39" s="91">
+        <v>0</v>
+      </c>
       <c r="J39" s="91">
         <f>Электро!B37</f>
         <v>535.69000000000005</v>
